--- a/data/case1/11/cost_2.xlsx
+++ b/data/case1/11/cost_2.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>159.9266627059902</v>
+        <v>159.92858335069499</v>
       </c>
       <c r="B1" s="0">
-        <v>5.684198704925314</v>
+        <v>5.723396162377159</v>
       </c>
       <c r="C1" s="0">
-        <v>1.0952054794520549</v>
+        <v>1.0265166340508807</v>
       </c>
     </row>
   </sheetData>
